--- a/src/attributions/attributions_ig_traj_395.xlsx
+++ b/src/attributions/attributions_ig_traj_395.xlsx
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>-0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>-0</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>-0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>-0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
         <v>-0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>-0</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
         <v>-0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
         <v>-0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>-0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
         <v>-0</v>
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
         <v>-0</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>-0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
         <v>-0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>-0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
         <v>-0</v>
@@ -2145,19 +2145,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.07655325668672984</v>
+        <v>0.08076942317994767</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1200334134820947</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03160593946721536</v>
+        <v>-0.01847096240799937</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.06767998576285246</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
@@ -2172,25 +2172,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.05983169198456893</v>
+        <v>0.04216054928418907</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06062075467124522</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02045892400405081</v>
+        <v>-0.01468455147315662</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.06672472609998353</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
         <v>-0</v>
@@ -2199,19 +2199,19 @@
         <v>-0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.003177733465420992</v>
+        <v>5.708439885912414e-12</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-2.000195507582453e-11</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01436449669159927</v>
+        <v>0.002520037062374271</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-0.002112603545596681</v>
       </c>
       <c r="Y4" t="n">
         <v>-0</v>
@@ -2220,25 +2220,25 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.07762961900348936</v>
+        <v>0.01391400644292028</v>
       </c>
       <c r="AD4" t="n">
         <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.08118558646160259</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.08620869016261361</v>
+        <v>0.02957691879151703</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>0.001549212891400271</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
@@ -2253,46 +2253,46 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.05108647452870431</v>
+        <v>0.01441368732102465</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.008991816024293534</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.0234506429307929</v>
+        <v>-0.01462919445918285</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.02106500077168694</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.1717004137780788</v>
+        <v>0.09090677900953878</v>
       </c>
       <c r="AV4" t="n">
         <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.05009863110487574</v>
+        <v>0</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.0002984466910373318</v>
+        <v>-0.01600966717597957</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.07567087386375836</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
@@ -2304,22 +2304,22 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.003971884289335441</v>
+        <v>0.01608589070804325</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.04026111525482995</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.001408020250959247</v>
+        <v>-0.01700265041844347</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>-0.007771802805500499</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2331,22 +2331,22 @@
         <v>-0</v>
       </c>
       <c r="BL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.04521675527287965</v>
+        <v>0.03269204688543417</v>
       </c>
       <c r="BN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.03468705912763496</v>
+        <v>-0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.002523507647110091</v>
+        <v>-0.003074087254476579</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.01626849174701902</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
@@ -2358,49 +2358,49 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.01612185612992881</v>
+        <v>0.04560114269296734</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.08419903114792289</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.02556689905160151</v>
+        <v>-0.01756205628799199</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>-0.01446840571202998</v>
       </c>
       <c r="CA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC4" t="n">
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.05028520273157483</v>
+        <v>-0.02074226007656471</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.03867797831152654</v>
+        <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.01532648279887621</v>
+        <v>-0.002043177636136521</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0.03853816540237043</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -2415,22 +2415,22 @@
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.001095703814446127</v>
+        <v>0.003719433942601462</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.01938008370336157</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.1152413902614418</v>
+        <v>0.00697327253638651</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.009020041102596753</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
         <v>-0</v>
@@ -2439,22 +2439,22 @@
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.04911360594074116</v>
+        <v>-0.01569839733856047</v>
       </c>
       <c r="CX4" t="n">
         <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.0323439771608458</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.007026343656052493</v>
+        <v>-0.005542299695693505</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>0.04065598502812606</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
@@ -2469,19 +2469,19 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.1484845860828164</v>
+        <v>-0.01157535131479475</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.02056166843627797</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.01868646922676281</v>
+        <v>0.01934196304787508</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.05505241337042874</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
@@ -2493,22 +2493,22 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.02524884923125795</v>
+        <v>-0.01245432214355841</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.02969900592240841</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.07113151268283284</v>
+        <v>0.02006725362062987</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0.01423290602189675</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2517,25 +2517,25 @@
         <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.06153405459483301</v>
+        <v>0.003404167583787482</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.06627275233795425</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.01290816926953313</v>
+        <v>-0.00162617212841725</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.03413847434947449</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
@@ -2544,31 +2544,31 @@
         <v>-0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.04609549004122145</v>
+        <v>-0.007599755171492572</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.04274024668544359</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.07063235036495999</v>
+        <v>-0.004739036904437425</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0.01503981058642621</v>
       </c>
       <c r="EL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
@@ -2577,19 +2577,19 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.01957262433472512</v>
+        <v>-0.003912484757605518</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.003062098138513175</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.05280466430697897</v>
+        <v>-0.01424284769046315</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>0.04022835499835994</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
@@ -2598,55 +2598,55 @@
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.03957194794318508</v>
+        <v>-0.01599478243518172</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.02470722658400859</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.01603320707574563</v>
+        <v>-0.003078302818425221</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.03722398791256894</v>
       </c>
       <c r="FD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE4" t="n">
         <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.01425994285104893</v>
+        <v>-0.01743484543849065</v>
       </c>
       <c r="FI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.03398493816416576</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.008664681841557716</v>
+        <v>-0.01246135598973959</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.00716781318314257</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
@@ -2658,19 +2658,19 @@
         <v>-0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.001171014453001825</v>
+        <v>0.0002921100931353198</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.07047469219808933</v>
+        <v>0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.02237597344550282</v>
+        <v>-0.007054767615090453</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.03619073311025166</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
@@ -2679,25 +2679,25 @@
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.03134024578774804</v>
+        <v>-0.01945625937887183</v>
       </c>
       <c r="GA4" t="n">
         <v>0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.08511749453813103</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.01079207120096872</v>
       </c>
       <c r="GE4" t="n">
         <v>-0</v>
@@ -2714,43 +2714,43 @@
         <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.1925137838297053</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08155708873792454</v>
+        <v>-0.08534506459253899</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06471593155515258</v>
+        <v>-0.0918120790461292</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.05028875736296956</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J5" t="n">
         <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.1039720456581782</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03295901756216867</v>
+        <v>-0.02685712736805953</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02344054106013877</v>
+        <v>-0.08519203771433986</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -2759,61 +2759,61 @@
         <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.02265062995647603</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.005781409945446294</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.001603626417125685</v>
+        <v>8.8688244849843e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>-5.299645286044836e-11</v>
+        <v>1.712564885282161e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.005925522300526032</v>
+        <v>-0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.07877656999528786</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02112691326640196</v>
+        <v>0.004563071840458834</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.009681600700647853</v>
+        <v>0.0369639943061584</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.03060296010094026</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
@@ -2822,25 +2822,25 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>-0.00695749810171758</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0422029225871795</v>
+        <v>-0.04441919066268623</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.07002804675707577</v>
+        <v>-0.08305545310066911</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.02005988527224657</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.370759195985766</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.09430086122257504</v>
+        <v>-0.01430438409576296</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.08740695884903169</v>
+        <v>0.1213645949312456</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
@@ -2867,25 +2867,25 @@
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.1221021621154449</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.0004980416170470086</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.00386846647090477</v>
+        <v>-0.03698053621462844</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.002842402495893746</v>
+        <v>-0.06028350271834866</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -2894,52 +2894,52 @@
         <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.007252038550055021</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.1174486281815664</v>
       </c>
       <c r="BN5" t="n">
         <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.005067531352578648</v>
+        <v>0.04478800082791886</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.001368348228424376</v>
+        <v>0.1318413088399543</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.06669448790162599</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.1822110570570007</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.1045792172173031</v>
+        <v>-0.003185631590356411</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.03857081157482359</v>
+        <v>0.01849783771665158</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0.07656195802292021</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
@@ -2957,25 +2957,25 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.05675669267101693</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.04512575055532494</v>
+        <v>0.02230095409953892</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.008933569152867402</v>
+        <v>0.001175070211351701</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.02614344992275934</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
@@ -2984,52 +2984,52 @@
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.04372672021524558</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.04725193590025226</v>
+        <v>-0.05830111191623655</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.06904955675385208</v>
+        <v>-0.1366926305044485</v>
       </c>
       <c r="CR5" t="n">
         <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.004605729868898074</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.03913875059908033</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0.04207014064723404</v>
+        <v>0.04268251342068213</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.004731269209370082</v>
+        <v>0.02086608458524998</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.01605919873740936</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
@@ -3038,79 +3038,79 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.001655348176029702</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.003218365579539779</v>
+        <v>0.02306340463834056</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.04499577666447909</v>
+        <v>-0.003627790129963488</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.0144261328760778</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.07003386662760699</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.01793758614011847</v>
+        <v>-0.02351677648364726</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.02990320217737067</v>
+        <v>-0.001540481232191079</v>
       </c>
       <c r="DS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT5" t="n">
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0.001903586940009644</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
         <v>0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.0262937360114307</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.03087623177258462</v>
+        <v>-0.04277024896393954</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.003077794307160113</v>
+        <v>-0.0230515720238223</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
         <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.03229052994546854</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
@@ -3119,25 +3119,25 @@
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.03864272150095772</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.04852586745470841</v>
+        <v>0.07112891367353338</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.0618817391865519</v>
+        <v>0.08053219928704609</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.04877981008437193</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
@@ -3146,25 +3146,25 @@
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.04501846675466722</v>
       </c>
       <c r="EQ5" t="n">
         <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.03019134821777268</v>
+        <v>0.05663793337100684</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.03437094762431986</v>
+        <v>-0.01126478869394736</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0.04392615713014745</v>
+        <v>-0</v>
       </c>
       <c r="EW5" t="n">
         <v>-0</v>
@@ -3173,25 +3173,25 @@
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.04442805820114921</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.03805065640026629</v>
+        <v>0.04212768186273488</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.00250808963365439</v>
+        <v>0.01563562580298947</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.02405955560014737</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>-0</v>
@@ -3200,43 +3200,43 @@
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>0.06282471186636412</v>
       </c>
       <c r="FI5" t="n">
         <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.04979779635970338</v>
+        <v>-0.04301221921953948</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.03394127020884766</v>
+        <v>-0.0019280692886305</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.009466362821111664</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.043318710509792</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.002844132250585614</v>
+        <v>0.03897791680113114</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.04066886059956704</v>
+        <v>0.05761517209657267</v>
       </c>
       <c r="FU5" t="n">
         <v>0</v>
@@ -3245,138 +3245,138 @@
         <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.03192519191729895</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.03412246080192088</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.01326148897488432</v>
+        <v>-0.01480787842605745</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.00761187859910937</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.03334366146118239</v>
+        <v>0.02782393383268718</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09730045490280549</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02519359912582847</v>
+        <v>-0.01559542180892867</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0.009258751536564426</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.02319860895685481</v>
+        <v>0.008131481268280248</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05821257884673322</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.004053417501145552</v>
+        <v>-0.01956125401453946</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.01091372043595223</v>
       </c>
       <c r="P6" t="n">
         <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.003423569270989486</v>
+        <v>0.0005966308510706949</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.008957419501626342</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.009387050675076761</v>
+        <v>-0.0001888760622963166</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0.002962742986816485</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.02849758819182573</v>
+        <v>0.02109725440465995</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.05377844360237201</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.02235955364905621</v>
+        <v>0.02531265114089981</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0.00246610636935063</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -3391,46 +3391,46 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.0350699064284778</v>
+        <v>0.004510887188661666</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.00179924002111382</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.0055008791689309</v>
+        <v>-0.01959965652028364</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.005882854579549997</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1272733913563137</v>
+        <v>0.05412120741952653</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.02269334959800932</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.008361442068630957</v>
+        <v>-0.009802111662536986</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.01076732077736483</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -3445,19 +3445,19 @@
         <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.002881268506611297</v>
+        <v>0.004315976217693894</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.04291203183467791</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.0004817030748150155</v>
+        <v>-0.01368576525200661</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>0.001366183993760958</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3466,28 +3466,28 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
         <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.02134167498110296</v>
+        <v>0.0336910432878058</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.03548242243689584</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.02911892419241472</v>
+        <v>0.01439691459014573</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.0118512319489197</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
@@ -3496,49 +3496,49 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.01328908088206274</v>
+        <v>0.01694271412948513</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.04499220719997614</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.02164519304787774</v>
+        <v>-0.01283477272274623</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0</v>
+        <v>0.01662696976433324</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.02695365748405518</v>
+        <v>-0.001693972286678692</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.0261655518073888</v>
+        <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.01551203867776886</v>
+        <v>-0.0003712928735546207</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.006451436150486278</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
@@ -3547,187 +3547,187 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.02961327631827667</v>
+        <v>-0.0006644369398006079</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.03023736214750107</v>
+        <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.09483300905520244</v>
+        <v>0.001053101298587852</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.01282934674502711</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.02766140870663726</v>
+        <v>0.003344289639930693</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.02090628887602813</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.007863956810177946</v>
+        <v>0.001157522804953674</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.006106140133160662</v>
       </c>
       <c r="DB6" t="n">
         <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.11088627745997</v>
+        <v>-0.001852835318017518</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.01627150321799437</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>-0.0004958479148625828</v>
+        <v>-0.0001895047228193837</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.01871159047405375</v>
       </c>
       <c r="DK6" t="n">
         <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.01630821409457855</v>
+        <v>0.001820474599737121</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.003228897207630156</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.06862876955246112</v>
+        <v>0.01535141098325061</v>
       </c>
       <c r="DS6" t="n">
-        <v>0</v>
+        <v>0.001889069572495153</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
         <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.01286947095029618</v>
+        <v>-0.01223162396320741</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.03353481463679814</v>
+        <v>-0</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.006737934658894201</v>
+        <v>-0.009191403740202475</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.001833120063116223</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.03011986900105447</v>
+        <v>0.006357255892505897</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.0442289781766526</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.03035391337842678</v>
+        <v>0.001392742350043461</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.003510129990783777</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
         <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.01504283247080753</v>
+        <v>3.729942837441042e-05</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.007418046867883943</v>
+        <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.0222703305758247</v>
+        <v>-0.01578290485131721</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>0.03356015294431564</v>
       </c>
       <c r="EU6" t="n">
         <v>-0</v>
@@ -3739,82 +3739,82 @@
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.01908652831882052</v>
+        <v>0.004309386553961092</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.01749406737134805</v>
+        <v>-0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.01846660563461862</v>
+        <v>0.000228584618482213</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.009681713409627075</v>
       </c>
       <c r="FD6" t="n">
         <v>0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
         <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.0293294538003556</v>
+        <v>-0.008446368275227802</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.01626196135052574</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>-0.007435399807692945</v>
+        <v>-0.01479862643705192</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.0202884689087738</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0.008345809543511334</v>
+        <v>-0.007393320064506325</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.04523591378353103</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.007163296717479142</v>
+        <v>-0.002895829147449729</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.004140814156674915</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
         <v>0</v>
@@ -3823,25 +3823,25 @@
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.02795290447018886</v>
+        <v>-0.02229866830504462</v>
       </c>
       <c r="GA6" t="n">
         <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.03533119921989997</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0.004937106194178441</v>
       </c>
       <c r="GE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>0</v>
@@ -3849,46 +3849,46 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.1157973378073804</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01588379181610506</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08102044603287804</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0009192930008434856</v>
+        <v>-0.01888611850555134</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>-0.02107324558172558</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.04880471926000608</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.01943249570147935</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0512037336164468</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.05560834742959933</v>
+        <v>-0.0644177797388101</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3900,49 +3900,49 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>-0.02251793420936797</v>
       </c>
       <c r="S7" t="n">
         <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.005874062873725826</v>
       </c>
       <c r="U7" t="n">
-        <v>0.005780189583499673</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.01404393019641209</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.02707768517827225</v>
+        <v>-0.002447361927208395</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.0003725336374915654</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.04149708601296588</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.00514390524682354</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.03144299100092558</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.006275573843385916</v>
+        <v>0.02607616003242012</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -3951,82 +3951,82 @@
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.01488846753321022</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.03138981973372649</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.009821261894827338</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.05254509994219862</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.01091840123350513</v>
+        <v>-0.02727370259129835</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0.01731448137987254</v>
       </c>
       <c r="AT7" t="n">
         <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.1935376323867256</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.03557429141706691</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.06664840571074705</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.02014865427792206</v>
+        <v>0.07277057282857734</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0</v>
+        <v>-0.0003824305947670898</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0.01097397833739699</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.005829361322535419</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.05465943642787471</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.01101931645947833</v>
+        <v>-0.04120615729825915</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
         <v>-0</v>
@@ -4035,22 +4035,22 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>0.009173598055853506</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.02190361948079069</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.05399792679643128</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.03965587676897731</v>
+        <v>0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.07675593490106249</v>
+        <v>0.08372236780627075</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4062,76 +4062,76 @@
         <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0</v>
+        <v>0.02808049399066705</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.09919377248250179</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.01081113356972101</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.07087128376009788</v>
+        <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.0486734352596459</v>
+        <v>0.01006090570066358</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>0.008949243702275249</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.02398855891557518</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.01303900627795619</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.037321158195438</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0259250166931394</v>
+        <v>0.0009641349049909969</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>0.02884687910318126</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.02397463096183432</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.008617820428091363</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.09750509556494917</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.001325057407859713</v>
+        <v>-0.01982257958279183</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0.01044412825071706</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.01923108182190582</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.01551156739445399</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0.02618887329782051</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.02045041276398521</v>
+        <v>0.006148750870387569</v>
       </c>
       <c r="DA7" t="n">
         <v>-0</v>
@@ -4167,25 +4167,25 @@
         <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0.02858891844373446</v>
       </c>
       <c r="DE7" t="n">
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.0768473471704548</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.02314715356021005</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0.02619626612613688</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.01902841992503457</v>
+        <v>0.02968946841663445</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
@@ -4197,22 +4197,22 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>-0.0079470943350913</v>
       </c>
       <c r="DN7" t="n">
         <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>0.0007070776768410674</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.01688948084152822</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.01004500908858573</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.03952004016201818</v>
+        <v>-0.00538740716006825</v>
       </c>
       <c r="DS7" t="n">
         <v>-0</v>
@@ -4221,28 +4221,28 @@
         <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0</v>
+        <v>0.0001369393628435813</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.001981749515028409</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.02748010924391724</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0385158557434052</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>-9.641074876069778e-05</v>
+        <v>-0.01827239438641064</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
         <v>-0</v>
@@ -4251,52 +4251,52 @@
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>-0.009604118742497947</v>
       </c>
       <c r="EF7" t="n">
         <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>-0</v>
+        <v>-0.002900217694050681</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.00753778955044755</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0.02184619752244901</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.002970096525000492</v>
+        <v>0.03048563630266237</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>0.0308367706929612</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.03727883303050775</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.0004030801556587247</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.01839405968731558</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.01349404952742099</v>
+        <v>-0.004776090605190121</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
@@ -4305,76 +4305,76 @@
         <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0</v>
+        <v>0.01268053725079802</v>
       </c>
       <c r="EX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.03048360336731324</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.01132123979782259</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.02155246628165632</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.02546148049167504</v>
+        <v>0.007177352467209592</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>0.01650902544005424</v>
       </c>
       <c r="FG7" t="n">
         <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.03177935392518871</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.01027389104448743</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.001452410366281869</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.005493450440660535</v>
+        <v>-0.02351258617591647</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>0</v>
+        <v>0.01294999322205836</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.05199328894180477</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.0018748961167838</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.01676256255908121</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.01719219389021788</v>
+        <v>0.01184258597869111</v>
       </c>
       <c r="FU7" t="n">
         <v>0</v>
@@ -4383,37 +4383,37 @@
         <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>0.0003741397621200349</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.03909111012020897</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.01235101389055361</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.04950594146818434</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0</v>
+        <v>0.03558599850766829</v>
       </c>
     </row>
     <row r="8">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>-0</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>-0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>-0</v>
@@ -4529,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>-0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
         <v>-0</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
         <v>-0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
         <v>-0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
         <v>-0</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
         <v>-0</v>
@@ -4691,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>-0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
         <v>-0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
         <v>-0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
         <v>-0</v>
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
         <v>-0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
         <v>-0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
         <v>-0</v>
@@ -4987,28 +4987,28 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.3106437831270257</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1408828179807279</v>
+        <v>-0.1496018185409515</v>
       </c>
       <c r="E9" t="n">
-        <v>0.05823239672231232</v>
+        <v>-0.03374901671874667</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.06724569933838188</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         <v>-0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.1697126951937322</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0905927032046622</v>
+        <v>-0.1423169249253365</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001195411128355295</v>
+        <v>-0.09410128015314211</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.08405319463443317</v>
+        <v>-0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -5044,52 +5044,52 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.04453996599713637</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.01155771420552287</v>
+        <v>0.005697712575746993</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.04421240530245794</v>
+        <v>0.003550425223815959</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.01071514168244269</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>-0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.1436082497318555</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.05264469999269388</v>
+        <v>-0.05435999256701774</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0004171117420194018</v>
+        <v>0.03515494326920635</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.003277805071844316</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
         <v>-0</v>
@@ -5098,43 +5098,43 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>-0.007756782793840201</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.0618805110119326</v>
+        <v>-0.0316841434212757</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.07334410801741813</v>
+        <v>-0.1229906483654108</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.01558347506753716</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT9" t="n">
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.4719931033194477</v>
       </c>
       <c r="AV9" t="n">
         <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.07670889608689301</v>
+        <v>0.03751369256533733</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.08403755792926157</v>
+        <v>0.2111707188669428</v>
       </c>
       <c r="AY9" t="n">
         <v>-0</v>
@@ -5143,25 +5143,25 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.1007799416404928</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.003993062569399903</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.0617169716431447</v>
+        <v>-0.05873728247999443</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.001040285478043459</v>
+        <v>-0.1237338661837435</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
@@ -5170,106 +5170,106 @@
         <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.002064004962976054</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.2021824751866237</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.007793185603479654</v>
+        <v>0.01229024564659119</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.01873577005363225</v>
+        <v>0.1672406240285256</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
         <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.02833601778428947</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>-0</v>
+        <v>0.2492858087171118</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.1072370386082437</v>
+        <v>0.02143861452588544</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.01076330857225439</v>
+        <v>0.05020676034669944</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
         <v>0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.112514196974538</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.06796379875061495</v>
       </c>
       <c r="CF9" t="n">
         <v>-0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.03845074326189889</v>
+        <v>0.002395838879714606</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.01161538298360022</v>
+        <v>-0.01609241205007882</v>
       </c>
       <c r="CI9" t="n">
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.01654091109575738</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
         <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0.1100282079297027</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.0718952484045971</v>
+        <v>-0.1461013875502917</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.08337971207425315</v>
+        <v>-0.1107085597182291</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
@@ -5278,25 +5278,25 @@
         <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.01558195133490379</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
         <v>-0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>-0.03723055642946148</v>
       </c>
       <c r="CX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.03703144166876288</v>
+        <v>0.02706039880496515</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.01631240089257644</v>
+        <v>-0.002575053257487002</v>
       </c>
       <c r="DA9" t="n">
         <v>-0</v>
@@ -5305,52 +5305,52 @@
         <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.01365430115451691</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
         <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.01786790571581448</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.01282495467218239</v>
+        <v>0.01666092615580402</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.0548582416063263</v>
+        <v>0.03702723470786631</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.05188490269168945</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.06706473905452226</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.02536545824506665</v>
+        <v>-0.05417780427934395</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.01990205736703518</v>
+        <v>-0.0001292172065608839</v>
       </c>
       <c r="DS9" t="n">
         <v>0</v>
@@ -5359,61 +5359,61 @@
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.01268919859522681</v>
+        <v>0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
         <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>0.03412264745845685</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.009813452894101212</v>
+        <v>-0.04244409367875661</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.01596921418269302</v>
+        <v>-0.028084615555417</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.0206088975531643</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
         <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0</v>
+        <v>-0.00104551353622646</v>
       </c>
       <c r="EH9" t="n">
         <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0.09872956434974808</v>
+        <v>0.06333572788325965</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.02446837270165385</v>
+        <v>0.04966400099544546</v>
       </c>
       <c r="EK9" t="n">
         <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.03646411648003327</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
@@ -5422,52 +5422,52 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.07630707054726414</v>
       </c>
       <c r="EQ9" t="n">
         <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.03340231848747399</v>
+        <v>-0.05927988856981358</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.03947550404147239</v>
+        <v>-0.01244967879751701</v>
       </c>
       <c r="ET9" t="n">
         <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.04096518800889366</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
         <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.05108775312552004</v>
       </c>
       <c r="EZ9" t="n">
         <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.03942576219829979</v>
+        <v>0.01316886067597326</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.01601340581422457</v>
+        <v>0.01737067343135156</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.03157278974579504</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
         <v>-0</v>
@@ -5476,135 +5476,135 @@
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>0.06351992522688722</v>
       </c>
       <c r="FI9" t="n">
         <v>0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.02871936255125059</v>
+        <v>0.04079100799245006</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.01500101856845846</v>
+        <v>-0.00227220744707745</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM9" t="n">
         <v>-0</v>
       </c>
       <c r="FN9" t="n">
-        <v>-0.001661055612295347</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.06349191649528482</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0.01673529805728832</v>
+        <v>-0.06039463508063075</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.08941518537575419</v>
+        <v>0.1055411958067576</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>-0.01313957166387099</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>-0.03878665617750221</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.008197425715573362</v>
+        <v>-0.07562386639912644</v>
       </c>
       <c r="GC9" t="n">
         <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
         <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.001058903934350717</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.4402908514670354</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.26298535724026</v>
+        <v>-0.1776899168732325</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0323309242395998</v>
+        <v>-0.1418458309131852</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.003290183701430228</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.07241582259386492</v>
+        <v>0.006966383837568238</v>
       </c>
       <c r="I10" t="n">
         <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.2490331763040262</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2160374507203308</v>
+        <v>-0.148039526802476</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.05329638671393021</v>
+        <v>-0.2338881086436558</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.0102827625146443</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.09593243730248524</v>
+        <v>0.0006259025869889794</v>
       </c>
       <c r="R10" t="n">
         <v>-0</v>
@@ -5613,79 +5613,79 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1065809864257045</v>
       </c>
       <c r="U10" t="n">
         <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.01330835986802668</v>
+        <v>-0.0268071246896393</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.06656554738414835</v>
+        <v>0.001552151021050291</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02157972814207055</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.01953305163076191</v>
+        <v>0.0008924633462729152</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.09702848550428238</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.08731946098602333</v>
+        <v>0.08233241587958723</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.05075754007673319</v>
+        <v>-0.04257525955572922</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.03265895927524243</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.03009556071878522</v>
+        <v>0.01401107604170282</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.02131876206002882</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.1001013161668971</v>
+        <v>-0.07242933967075005</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.04014210538123266</v>
+        <v>-0.1017482921480195</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.03867543669208839</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.002244091819042755</v>
+        <v>0.01617926028399346</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -5694,295 +5694,295 @@
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.6401103171666822</v>
       </c>
       <c r="AV10" t="n">
         <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.112476115948184</v>
+        <v>0.002108271263173253</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.112860477930752</v>
+        <v>0.2245702194138643</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.007271231623354068</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.09635309996003438</v>
+        <v>0.07107810982269756</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.00785688324501623</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.1265512410067304</v>
+        <v>-0.06010580422804935</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.08266423707808523</v>
+        <v>-0.2662472994592956</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.01315417687192219</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.01416229362535909</v>
+        <v>0.002449231348911655</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.2429090222732718</v>
       </c>
       <c r="BN10" t="n">
         <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.01603996552172399</v>
+        <v>0.1456087020890262</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.05118368967385287</v>
+        <v>0.1699019906205022</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.02139486941637319</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0608997027304988</v>
+        <v>0.04320480267832511</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.3162437509486433</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.1367551514471558</v>
+        <v>0.0400318113890943</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.02042317943959724</v>
+        <v>0.05188468513082019</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.00861870300922798</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.07560105653789047</v>
+        <v>0.007521382952760131</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.101160596047404</v>
       </c>
       <c r="CF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.06576433287130587</v>
+        <v>0.0229675376556018</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.001597230141493607</v>
+        <v>-0.004657245054452024</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.003492131583228877</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.02058953188015781</v>
+        <v>0.004038552324802264</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.1356251083885716</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0.04517206801036735</v>
+        <v>-0.1641882851359851</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.1061212760939483</v>
+        <v>-0.05490725202692203</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0.01979920831709835</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0.03853867006173619</v>
+        <v>0.06718983377328348</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
         <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.06636422345437699</v>
       </c>
       <c r="CX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0.04846541135880229</v>
+        <v>0.05763117494988689</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.000573909198124838</v>
+        <v>-0.0005202180727150902</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.01381633682448569</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.009586425614465165</v>
+        <v>0.003444438859980974</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.07123888000159292</v>
       </c>
       <c r="DG10" t="n">
         <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0.05590719831207289</v>
+        <v>0.0374631971371692</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.03510053757062312</v>
+        <v>0.001851989678323579</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0.005338470211975247</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.03359396562448787</v>
+        <v>-0.001310824437900616</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.1066586137105585</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.04207825125935107</v>
+        <v>-0.03923077863142565</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.07136162257143637</v>
+        <v>0.03561540871482522</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0.02918814431325331</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0.03406371707790778</v>
+        <v>-0.02522504243065432</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
         <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.02519298664173803</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.005282200260482217</v>
+        <v>-0.04589391014469666</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.02256107339821111</v>
+        <v>-0.07160045068613582</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.04987518732352412</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
         <v>-0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.05240302403708458</v>
+        <v>-0.02118818310187182</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
         <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.04794935135944808</v>
       </c>
       <c r="EH10" t="n">
         <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0.1585753231573972</v>
+        <v>0.07367924319550254</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.0146385343608561</v>
+        <v>0.04090626549340704</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0.00882015410649613</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.006053341967095645</v>
+        <v>0.04009067728754524</v>
       </c>
       <c r="EN10" t="n">
         <v>-0</v>
@@ -5991,25 +5991,25 @@
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.1079617439587324</v>
       </c>
       <c r="EQ10" t="n">
         <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0.04059116312865198</v>
+        <v>0.1037272876147865</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.002233901864413163</v>
+        <v>-0.04483390238004744</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.09506144735203276</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0.01710040851974151</v>
+        <v>-0.00136057393496394</v>
       </c>
       <c r="EW10" t="n">
         <v>-0</v>
@@ -6018,52 +6018,52 @@
         <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.07592910406450924</v>
       </c>
       <c r="EZ10" t="n">
         <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0.05093421774240221</v>
+        <v>0.04356421108616246</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.003819904021271003</v>
+        <v>0.02225964380285048</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.01798019122370972</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.02423700289181602</v>
+        <v>0.003030290770007936</v>
       </c>
       <c r="FF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>0.06987662061938599</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.0585938302820426</v>
+        <v>-0.05421930011404287</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.06239131865263018</v>
+        <v>-0.03335611530846368</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0.005460158929141729</v>
+        <v>-0</v>
       </c>
       <c r="FM10" t="n">
         <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.004548760016973036</v>
+        <v>0.007098462823188424</v>
       </c>
       <c r="FO10" t="n">
         <v>0</v>
@@ -6072,25 +6072,25 @@
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.1219724884991377</v>
       </c>
       <c r="FR10" t="n">
         <v>0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0.03654137354164265</v>
+        <v>-0.08357035109170222</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.04756783538865782</v>
+        <v>-0.09229050393218217</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0.06602292924942477</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
         <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.04091319130647895</v>
+        <v>0.008932623429281633</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
@@ -6099,25 +6099,25 @@
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.1172272258305028</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.06159266362322028</v>
+        <v>-0.03033963152094096</v>
       </c>
       <c r="GC10" t="n">
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.01265099722126449</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0.01675027174191097</v>
+        <v>0.03123071478992191</v>
       </c>
       <c r="GG10" t="n">
         <v>-0</v>
@@ -6125,28 +6125,28 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1059333519520071</v>
+        <v>0.1865634434479534</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1864517183126888</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04966017031213853</v>
+        <v>-0.1302053806074242</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.08240439811231196</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -6155,19 +6155,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.07612896415630394</v>
+        <v>0.1088697099824431</v>
       </c>
       <c r="L11" t="n">
         <v>-0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1471165300729395</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01542409171972967</v>
+        <v>-0.1281176697042004</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.07876987932786376</v>
       </c>
       <c r="P11" t="n">
         <v>-0</v>
@@ -6176,52 +6176,52 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.009287812433964163</v>
+        <v>0.03304338114315511</v>
       </c>
       <c r="U11" t="n">
         <v>-0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.02724945071880526</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.06614668838624829</v>
+        <v>0.006650847669861908</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.03076074914782129</v>
       </c>
       <c r="Y11" t="n">
         <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.05695654069417112</v>
+        <v>0.04379694355965294</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.06364058531030678</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.05230137050076716</v>
+        <v>0.01475748682426094</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.02516536047205831</v>
       </c>
       <c r="AH11" t="n">
         <v>-0</v>
@@ -6230,79 +6230,79 @@
         <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.0180576892127286</v>
+        <v>0.03857611322968073</v>
       </c>
       <c r="AM11" t="n">
         <v>-0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.01725472805800042</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.03059329323167023</v>
+        <v>-0.02760179976334685</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.0193334364507083</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>-0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.05968460615902865</v>
+        <v>0.2119165070281292</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.04338332057826975</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.02620249282851166</v>
+        <v>-0.02572358315253303</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.01592252274512002</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.01487667386571162</v>
+        <v>0.03866057386769809</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.09649334027058395</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.02117378505216969</v>
+        <v>-0.09153474870413542</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.05024011274409517</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,58 +6311,58 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.04919358357710373</v>
+        <v>0.1076782255551417</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.02066848100423234</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.007078530387231835</v>
+        <v>0.06667108456247167</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.03409840142123192</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.02778272501906762</v>
+        <v>0.1011734890604092</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.0777734519410056</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.04804350490535423</v>
+        <v>-0.01977159078658653</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>0.02779504962385125</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
         <v>0</v>
@@ -6371,46 +6371,46 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.0364884105261444</v>
+        <v>-0.03559337887299662</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0.04397796137722296</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01348663350235717</v>
+        <v>0.01822059129608778</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.01929302833236883</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
         <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.02601348573299822</v>
+        <v>-0.0445878841842258</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0.04249321249402956</v>
+        <v>-0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.1255262768873276</v>
+        <v>-0.03298268144222425</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0.02508261477963157</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
@@ -6419,58 +6419,58 @@
         <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.03959957529690562</v>
+        <v>-0.017985031504329</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0.03489535398623698</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.01066905895266531</v>
+        <v>0.01874719641363956</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>0.02236965421006079</v>
       </c>
       <c r="DB11" t="n">
         <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.05106572643053089</v>
+        <v>-0.05143239313786468</v>
       </c>
       <c r="DG11" t="n">
         <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>-0.02762752623385959</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.04909817317801127</v>
+        <v>0.0159314567753884</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>-0.0002423546146745756</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM11" t="n">
         <v>0</v>
@@ -6479,25 +6479,25 @@
         <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.003477417939080437</v>
+        <v>-0.04216957147418027</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>-0.00702387797183794</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.03880511997187997</v>
+        <v>0.01458771520107713</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0.04208701483568133</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
         <v>-0</v>
@@ -6506,22 +6506,22 @@
         <v>0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.01471721035378383</v>
+        <v>-0.003986210686452977</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.03837428527742284</v>
+        <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.02876979105717293</v>
+        <v>-0.04198985929512244</v>
       </c>
       <c r="EB11" t="n">
-        <v>0</v>
+        <v>-0.02542270482494236</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
         <v>-0</v>
@@ -6533,103 +6533,103 @@
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.02812534112481955</v>
+        <v>0.005027047569210839</v>
       </c>
       <c r="EH11" t="n">
         <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0.06229355661767796</v>
+        <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.02232774429694971</v>
+        <v>0.01873699305996717</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0</v>
+        <v>0.004154785308562642</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.02409850307374853</v>
+        <v>0.01728467213138319</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.007346503023750105</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.03334111936183669</v>
+        <v>0.002320854417367035</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.03525829029920941</v>
       </c>
       <c r="EU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV11" t="n">
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.03428937654412168</v>
+        <v>-0.01461014540536462</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0.03631781941235972</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.02006791051712912</v>
+        <v>0.01594024991814146</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>0.0289982909196963</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>-0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.0362381107084962</v>
+        <v>-0.03070063399817069</v>
       </c>
       <c r="FI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0.04040904454230636</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.02100651633487298</v>
+        <v>-0.03780213641873379</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.01770195720889136</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
         <v>-0</v>
@@ -6638,52 +6638,52 @@
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.007569584437540466</v>
+        <v>0.000452934342167223</v>
       </c>
       <c r="FR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.05598630113178436</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.06793298219566643</v>
+        <v>-0.01935817327100704</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.01246006239132413</v>
       </c>
       <c r="FV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW11" t="n">
         <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.03342671789549446</v>
+        <v>-0.05802236918049801</v>
       </c>
       <c r="GA11" t="n">
         <v>0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.04094989310009101</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
         <v>-0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.02594940694075738</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
         <v>-0</v>
@@ -6694,19 +6694,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.2585153132086625</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3678983379580263</v>
+        <v>-0.1686446863551635</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004227134335331478</v>
+        <v>-0.02017214448635723</v>
       </c>
       <c r="F12" t="n">
         <v>-0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1618239324499557</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -6724,16 +6724,16 @@
         <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.1563564221590762</v>
       </c>
       <c r="L12" t="n">
         <v>-0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3069313312818652</v>
+        <v>-0.1437769102282347</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1126058424771556</v>
+        <v>-0.06638234473752368</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -6742,61 +6742,61 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.1983516525121245</v>
+        <v>-0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.06570230656072314</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.007620713458298027</v>
+        <v>0.008407401189072418</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.1288620371833918</v>
+        <v>0.04471970760466819</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.05443170316099442</v>
+        <v>-0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.124459273960484</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1150598761383212</v>
+        <v>-0.02086072358761885</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.003589868971848752</v>
+        <v>-0.02639332139670282</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.0241524528940248</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>-0</v>
@@ -6805,43 +6805,43 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.002559026151670163</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.1103953071962142</v>
+        <v>-0.02529102811409886</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.06900891840478991</v>
+        <v>-0.07618914747940428</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.03144532948592829</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.3419070177365711</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.1546303148321961</v>
+        <v>0.005273432373482418</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.001682683338959218</v>
+        <v>0.124256827913943</v>
       </c>
       <c r="AY12" t="n">
         <v>-0</v>
@@ -6850,250 +6850,250 @@
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.1710438720479305</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>-0.01030745468903699</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.1738245047783953</v>
+        <v>-0.07915704481120342</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.01382847128605726</v>
+        <v>-0.1191054579585076</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
         <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.02382481603765007</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.1158812285994092</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.01080584569347145</v>
+        <v>0.02521354130257183</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.02031401275265401</v>
+        <v>0.1136421157503044</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.08530504909631627</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
         <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>-0</v>
+        <v>0.189070896259754</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.1559321061237281</v>
+        <v>0.007879261781835387</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.02870653325772104</v>
+        <v>0.06922827212524421</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
         <v>0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.1537122131860762</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.05226841224733999</v>
       </c>
       <c r="CF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0.09172239238109282</v>
+        <v>0.006285900333130461</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.0390266515591619</v>
+        <v>-0.01458688918768843</v>
       </c>
       <c r="CI12" t="n">
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.05089703232206943</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-0.07041460897981097</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0.106308872459683</v>
+        <v>-0.07583204960531706</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.1486705947965597</v>
+        <v>-0.07019359876893472</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.07897429265634927</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
         <v>-0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.02541963845771949</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0.08357578105948427</v>
+        <v>0.02274550385454497</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.04334031279311257</v>
+        <v>-0.0100365903669998</v>
       </c>
       <c r="DA12" t="n">
         <v>-0</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.04879203402456695</v>
+        <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="n">
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.04389298225528473</v>
       </c>
       <c r="DG12" t="n">
         <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.04685432971183875</v>
+        <v>0.01716590832923312</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.1191836853052174</v>
+        <v>0.03692698110862352</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.0250737690692448</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.04174413105859101</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.02523544209350259</v>
+        <v>-0.01128278476884811</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.003208434147809585</v>
+        <v>-0.04954121363105128</v>
       </c>
       <c r="DS12" t="n">
         <v>0</v>
       </c>
       <c r="DT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.01242019582369862</v>
+        <v>0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW12" t="n">
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.0514452093391151</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.03320434209492153</v>
+        <v>0.02075242958094164</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.06010163513758492</v>
+        <v>-0.03125575549540042</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0.03259899670174912</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
         <v>-0</v>
@@ -7102,16 +7102,16 @@
         <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>-0.005678476387738914</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0.1684699601623477</v>
+        <v>0.05321134446500952</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.03560903344833555</v>
+        <v>0.05355431272106312</v>
       </c>
       <c r="EK12" t="n">
         <v>0</v>
@@ -7120,34 +7120,34 @@
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.06887309691192328</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.04933644385127156</v>
       </c>
       <c r="EQ12" t="n">
         <v>-0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.06692360150357769</v>
+        <v>0.03554958189861267</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.05946360900935136</v>
+        <v>0.03717662215899917</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0.0427095892902075</v>
+        <v>-0</v>
       </c>
       <c r="EW12" t="n">
         <v>-0</v>
@@ -7156,79 +7156,79 @@
         <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.03729433951483967</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0.08328072126285258</v>
+        <v>0.0236981962296835</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.04376130141291455</v>
+        <v>0.003043856951867318</v>
       </c>
       <c r="FC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.06458989864420209</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>0.0522424468499029</v>
       </c>
       <c r="FI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.0708073409729791</v>
+        <v>0.02444072011443786</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.03283222357909523</v>
+        <v>-0.03887936883982937</v>
       </c>
       <c r="FL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.02934488587171601</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
         <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.04154018757349524</v>
       </c>
       <c r="FR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.0353585906326838</v>
+        <v>-0.01839396973323576</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.09013096044662822</v>
+        <v>0.05438533229967223</v>
       </c>
       <c r="FU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV12" t="n">
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.0576555121839363</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
         <v>0</v>
@@ -7237,25 +7237,25 @@
         <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>-0.009332734428241906</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.04490651376934278</v>
+        <v>-0.06913356310096716</v>
       </c>
       <c r="GC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.005477995137047569</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
         <v>-0</v>
@@ -7266,184 +7266,184 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1719535046632484</v>
+        <v>0.5185063179863727</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3150428622382626</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06166435254915245</v>
+        <v>-0.1179979846420672</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.4376010567670041</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.1522244104673318</v>
+        <v>0.3856824358488302</v>
       </c>
       <c r="L13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2435900530882778</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.01330377672267288</v>
+        <v>-0.09370407366375788</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0.410393103553941</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.01895863541067018</v>
+        <v>0.06820004108577755</v>
       </c>
       <c r="U13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.04906264621770842</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.1263618047095256</v>
+        <v>-0.01530539943999252</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-0.0130274978593091</v>
       </c>
       <c r="Y13" t="n">
         <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.05381233593119538</v>
+        <v>0.06713986913547565</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.1033299711967105</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.1060715234070942</v>
+        <v>0.03962432792171616</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>-0.04421853005414508</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI13" t="n">
         <v>-0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.02252291239448128</v>
+        <v>0.07633332945673493</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.03146147575276016</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.02473531731386603</v>
+        <v>0.004872177228289499</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0</v>
+        <v>-0.07313004676063878</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
         <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.1231948211729289</v>
+        <v>0.4269903245182938</v>
       </c>
       <c r="AV13" t="n">
         <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.08014560561263745</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.02259347676557083</v>
+        <v>-0.01770353952600189</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.1932952309689211</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB13" t="n">
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.02758094584900457</v>
+        <v>0.1291667249990226</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.1501260804960512</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.006848557227781413</v>
+        <v>-0.1286876607711013</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>-0.1521274950037579</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
@@ -7452,22 +7452,22 @@
         <v>-0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.05434061316975156</v>
+        <v>0.1542809442765107</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.03063488681826061</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.003127870166833089</v>
+        <v>0.0750799339653711</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>0.0277011756899567</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
@@ -7476,52 +7476,52 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0.03252529398461536</v>
+        <v>0.2263450917345012</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.1160196516319725</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.08750562528449567</v>
+        <v>-0.04870400958920722</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>-0.1303070872179324</v>
       </c>
       <c r="CA13" t="n">
         <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC13" t="n">
         <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.05247212113638615</v>
+        <v>-0.09784281174618389</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>-0.0656136640536341</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.01098930376537809</v>
+        <v>-0.00765751443833173</v>
       </c>
       <c r="CI13" t="n">
-        <v>0</v>
+        <v>0.09737834580871796</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
@@ -7533,25 +7533,25 @@
         <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.01604081215105586</v>
+        <v>-0.09014309949054794</v>
       </c>
       <c r="CO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0.02962721022282807</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.1476645644041921</v>
+        <v>-0.0276355863351632</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>-0.0006680196033950707</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
@@ -7560,22 +7560,22 @@
         <v>-0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.04200743546879539</v>
+        <v>-0.07159357109089486</v>
       </c>
       <c r="CX13" t="n">
         <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0.05941050706194572</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.01506168781277428</v>
+        <v>-0.005891994711372056</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>0.101092451870107</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
@@ -7587,22 +7587,22 @@
         <v>-0</v>
       </c>
       <c r="DE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.04702868821740176</v>
+        <v>-0.07281881168860514</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>-0.003650343606988665</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.05316689130875048</v>
+        <v>0.02450556154972473</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>0.01652226634082684</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
@@ -7614,28 +7614,28 @@
         <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0.0003191666813536003</v>
+        <v>-0.05717563368490503</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.01092748160986426</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.04597210121140308</v>
+        <v>0.02683868619840318</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>0.009113176576573474</v>
       </c>
       <c r="DT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
         <v>0</v>
@@ -7644,22 +7644,22 @@
         <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.05416380301397426</v>
+        <v>0.007952112733939209</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.04279274556754898</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.004787097762640679</v>
+        <v>0.00279448395870382</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>0.03410432812806338</v>
       </c>
       <c r="EC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
         <v>-0</v>
@@ -7671,25 +7671,25 @@
         <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.0402049963622854</v>
+        <v>-0.03838704059535658</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0.1105061135481312</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.03838859197510022</v>
+        <v>0.01835908158064451</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0.08839811074440988</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
         <v>0</v>
@@ -7698,19 +7698,19 @@
         <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.01947767233159893</v>
+        <v>-0.0160716103308243</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.02065687783535175</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.009262241212841076</v>
+        <v>-0.01270540219610088</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>0.08677842422700745</v>
       </c>
       <c r="EU13" t="n">
         <v>-0</v>
@@ -7722,22 +7722,22 @@
         <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.0456453647715257</v>
+        <v>-0.06550756107412127</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>-0.05758236813588347</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.02560241222970324</v>
+        <v>-0.003267952884683173</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0.09917313933793175</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
@@ -7746,52 +7746,52 @@
         <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0.02122889510093848</v>
+        <v>-0.0580137063140208</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>-0.08541633259133151</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.05195630792979573</v>
+        <v>-0.007837599278915556</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>-0.05997968942058924</v>
       </c>
       <c r="FM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
         <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.01951433222026547</v>
+        <v>0.01262190898943434</v>
       </c>
       <c r="FR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.0004720219052422081</v>
+        <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.05043020227631644</v>
+        <v>-0.06056099862594497</v>
       </c>
       <c r="FU13" t="n">
-        <v>0</v>
+        <v>-0.01232908799872844</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
@@ -7806,19 +7806,19 @@
         <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.02731362292150806</v>
+        <v>-0.02939909396928639</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.04388101077480785</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>-0.04213593414578445</v>
       </c>
       <c r="GE13" t="n">
         <v>-0</v>
@@ -7832,100 +7832,100 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0.5286229261194823</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3085778087022288</v>
+        <v>-0.1682933753576391</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.02942757442791922</v>
+        <v>-0.1480622399467619</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1422873555568391</v>
+        <v>-0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.3210510663346797</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2513268833146688</v>
+        <v>-0.1335369656452065</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.09241669182224958</v>
+        <v>-0.1316001884228508</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1583603136294961</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.1117279816552704</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.002226324248342226</v>
+        <v>-0.02158566312028126</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.1043369150260443</v>
+        <v>0.04833083859174277</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.04571563752114093</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
         <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0</v>
+        <v>0.1046445436161811</v>
       </c>
       <c r="AD14" t="n">
         <v>-0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.09194314676667681</v>
+        <v>0.001436641937306982</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.03245878411338215</v>
+        <v>0.004468306275816971</v>
       </c>
       <c r="AG14" t="n">
         <v>-0</v>
@@ -7934,214 +7934,214 @@
         <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.03231971318821056</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK14" t="n">
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0</v>
+        <v>0.01237921660874817</v>
       </c>
       <c r="AM14" t="n">
         <v>-0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.1006721816320899</v>
+        <v>-0.06953290459935094</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.02599556389145992</v>
+        <v>-0.08713374000156353</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.03466718115528498</v>
+        <v>-0</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0</v>
+        <v>0.4215941120183702</v>
       </c>
       <c r="AV14" t="n">
         <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.1419577735258453</v>
+        <v>0.04964009408416269</v>
       </c>
       <c r="AX14" t="n">
-        <v>-0.02278966059359762</v>
+        <v>0.06017346637853012</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.1672163756744096</v>
+        <v>-0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>0.02561790094416077</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.1389507836316543</v>
+        <v>-0.09028068057331227</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.05391683845513271</v>
+        <v>-0.1991636031635254</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.02137385254147259</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
         <v>-0</v>
       </c>
       <c r="BL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0</v>
+        <v>0.1142891431536983</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO14" t="n">
-        <v>-0.001414878371834378</v>
+        <v>0.04587954234544138</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.004768852630060784</v>
+        <v>0.1382088625069808</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR14" t="n">
         <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.07401806348860983</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>-0</v>
+        <v>0.2035575119718927</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.1165519461469953</v>
+        <v>0.05509007064449815</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.04881008745272392</v>
+        <v>0.022568866130664</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0.1101728897133789</v>
+        <v>-0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
         <v>0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>-0.111813394843235</v>
       </c>
       <c r="CF14" t="n">
         <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0.07788308552893934</v>
+        <v>0.01286188181493637</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.03154419297932549</v>
+        <v>-0.01466756692226102</v>
       </c>
       <c r="CI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.03996696759432264</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>-0.01167192036233329</v>
       </c>
       <c r="CO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0.07079162141479461</v>
+        <v>-0.1003361007193509</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.1425257726186528</v>
+        <v>-0.08523324662377142</v>
       </c>
       <c r="CR14" t="n">
         <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.04929986191732344</v>
+        <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0</v>
+        <v>-0.0897242764322768</v>
       </c>
       <c r="CX14" t="n">
         <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0.06722000327602858</v>
+        <v>0.03302946616672613</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.02834902069895513</v>
+        <v>-0.01722760092760546</v>
       </c>
       <c r="DA14" t="n">
         <v>0</v>
@@ -8150,142 +8150,142 @@
         <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.03124145139527813</v>
+        <v>-0</v>
       </c>
       <c r="DD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE14" t="n">
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>0.003922458990247836</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.001843328995841682</v>
+        <v>0.02030898642563894</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.05919662440501249</v>
+        <v>0.03519079441912639</v>
       </c>
       <c r="DJ14" t="n">
         <v>0</v>
       </c>
       <c r="DK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.02848197588668826</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>-0</v>
+        <v>-0.04240361614842474</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>-0.002149988444895765</v>
+        <v>0.0621974110656051</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.01634869625914399</v>
+        <v>-0.0605255985000634</v>
       </c>
       <c r="DS14" t="n">
         <v>0</v>
       </c>
       <c r="DT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.05008914400700515</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW14" t="n">
         <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>0.03429717346658236</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.02263075349408722</v>
+        <v>-0.002620446999818886</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.01841380190537875</v>
+        <v>-0.08001545178529612</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.03517658845653305</v>
+        <v>0</v>
       </c>
       <c r="EE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>-0</v>
+        <v>-0.09381341385750964</v>
       </c>
       <c r="EH14" t="n">
         <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0.1228344565252002</v>
+        <v>0.03520125713244327</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.03427624252398054</v>
+        <v>0.07892704430982778</v>
       </c>
       <c r="EK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL14" t="n">
         <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.04864931525565938</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO14" t="n">
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>-0.06522627786196403</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0.01485879667744646</v>
+        <v>0.02782078297904888</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.01454935257663796</v>
+        <v>0.01848593951006508</v>
       </c>
       <c r="ET14" t="n">
         <v>-0</v>
       </c>
       <c r="EU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.003848470399384672</v>
+        <v>0</v>
       </c>
       <c r="EW14" t="n">
         <v>-0</v>
@@ -8294,52 +8294,52 @@
         <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>-0.09125827171909386</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0.07255097981606928</v>
+        <v>0.02283194429682905</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.03726082593640492</v>
+        <v>0.00987534587507934</v>
       </c>
       <c r="FC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD14" t="n">
         <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.04564593807245611</v>
+        <v>0</v>
       </c>
       <c r="FF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG14" t="n">
         <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
+        <v>-0.0003180006781998393</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0.07264976560595267</v>
+        <v>0.06929151923482957</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.09623632117267213</v>
+        <v>-0.08317110490858716</v>
       </c>
       <c r="FL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.03264529839619104</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
         <v>0</v>
@@ -8348,25 +8348,25 @@
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0</v>
+        <v>-0.008043162849473234</v>
       </c>
       <c r="FR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>-0.006319475307792172</v>
+        <v>-0.01642182428702299</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.01608310107704404</v>
+        <v>-0.01429941892978378</v>
       </c>
       <c r="FU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.0459579985128506</v>
+        <v>0</v>
       </c>
       <c r="FX14" t="n">
         <v>0</v>
@@ -8375,25 +8375,25 @@
         <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0</v>
+        <v>0.003505795873084772</v>
       </c>
       <c r="GA14" t="n">
         <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.03170855648090826</v>
+        <v>-0.06301702227592892</v>
       </c>
       <c r="GC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.01832964901345848</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
         <v>-0</v>
@@ -8401,157 +8401,157 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B15" t="n">
-        <v>-0</v>
+        <v>-0.4564427839986571</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.131730080231551</v>
+        <v>0.2645937004266292</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.07638129786946166</v>
+        <v>0.05029196273180118</v>
       </c>
       <c r="F15" t="n">
         <v>-0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
         <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.240542978736991</v>
+        <v>-0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0</v>
+        <v>-0.3584621162462475</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.07359102639660876</v>
+        <v>0.3413410734431294</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.07804724221934212</v>
+        <v>0.05356714178850103</v>
       </c>
       <c r="O15" t="n">
         <v>-0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
         <v>-0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2137687252831451</v>
+        <v>-0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>-0.09614237776760634</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.0633188762287884</v>
+        <v>0.02824106467058407</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0918396338979133</v>
+        <v>-0.03924704271959094</v>
       </c>
       <c r="X15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.05942957962245397</v>
+        <v>-0</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0</v>
+        <v>-0.1554327962074961</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.02317421483884753</v>
+        <v>-0.003509899388694672</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.02144247403768023</v>
+        <v>-0.01627363113032116</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0.07258591314396053</v>
+        <v>-0</v>
       </c>
       <c r="AK15" t="n">
         <v>-0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0</v>
+        <v>-0.03942215819081901</v>
       </c>
       <c r="AM15" t="n">
         <v>-0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0.04165631208081738</v>
+        <v>0.05458761859278729</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.01771784964722501</v>
+        <v>0.006740524950795296</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR15" t="n">
         <v>-0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.02229965073110468</v>
+        <v>-0</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0</v>
+        <v>-0.2868105116609692</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.09596340085084853</v>
+        <v>-0.04567846155363928</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.03349535180353649</v>
+        <v>-0.09678492282679307</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
@@ -8560,184 +8560,184 @@
         <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.1345249164275658</v>
+        <v>-0</v>
       </c>
       <c r="BC15" t="n">
         <v>-0</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0</v>
+        <v>-0.060994002809046</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.01678009488098157</v>
+        <v>0.1260205841323776</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.03122314921913346</v>
+        <v>0.3161785072602838</v>
       </c>
       <c r="BH15" t="n">
         <v>-0</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.006577098168681349</v>
+        <v>-0</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>-0.02946675256962603</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>-0.007171779875793817</v>
+        <v>-0.04744744563050609</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.02299434010958006</v>
+        <v>0.01114303634050386</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>-0.05910140099991115</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>-0</v>
+        <v>-0.1671870063711133</v>
       </c>
       <c r="BW15" t="n">
         <v>-0</v>
       </c>
       <c r="BX15" t="n">
-        <v>-0.09673154316881852</v>
+        <v>0.06180267852582325</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.002743827304289784</v>
+        <v>-0.08762867698990112</v>
       </c>
       <c r="BZ15" t="n">
         <v>-0</v>
       </c>
       <c r="CA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.1591038417866185</v>
+        <v>-0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>0.102260595208331</v>
       </c>
       <c r="CF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.03619167677949821</v>
+        <v>-0.03668932714914622</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.008797315531688376</v>
+        <v>0.06530475914507647</v>
       </c>
       <c r="CI15" t="n">
         <v>-0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>-0.02541978598935082</v>
+        <v>-0</v>
       </c>
       <c r="CM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>0.005882245127220766</v>
       </c>
       <c r="CO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.0382611905085564</v>
+        <v>0.04151398224568447</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.07876899149337155</v>
+        <v>0.045201717457455</v>
       </c>
       <c r="CR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT15" t="n">
         <v>0</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.04449782437873897</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0</v>
+        <v>0.100421316766799</v>
       </c>
       <c r="CX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.04006659362927226</v>
+        <v>-0.04622192058905903</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.001272463432878128</v>
+        <v>0.04626496791398203</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD15" t="n">
-        <v>-0.03542832164258782</v>
+        <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>0</v>
+        <v>0.08466932568737566</v>
       </c>
       <c r="DG15" t="n">
         <v>-0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.02455158130994892</v>
+        <v>-0.02203101960767359</v>
       </c>
       <c r="DI15" t="n">
-        <v>-0.001690151002921499</v>
+        <v>0.0004070333634122106</v>
       </c>
       <c r="DJ15" t="n">
         <v>-0</v>
@@ -8749,214 +8749,214 @@
         <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.004804724142415833</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
         <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>0.07590698066888663</v>
       </c>
       <c r="DP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>-0.01595234815028908</v>
+        <v>-0.05312886466523319</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.005227060464764513</v>
+        <v>0.1096160086175421</v>
       </c>
       <c r="DS15" t="n">
         <v>-0</v>
       </c>
       <c r="DT15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU15" t="n">
         <v>-0</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.07585362634244659</v>
+        <v>-0</v>
       </c>
       <c r="DW15" t="n">
         <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>-0.0492540127398517</v>
       </c>
       <c r="DY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>-0.02151120696387929</v>
+        <v>0.09409950056447747</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.02167723205179719</v>
+        <v>-0.06995481535679039</v>
       </c>
       <c r="EB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC15" t="n">
         <v>0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.0402242313355616</v>
+        <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>0.05753397383782762</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.06233096929124582</v>
+        <v>-0.02927969396526028</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.05929637170374318</v>
+        <v>-0.02902700927530125</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM15" t="n">
         <v>0</v>
       </c>
       <c r="EN15" t="n">
-        <v>-0.04717852690961047</v>
+        <v>-0</v>
       </c>
       <c r="EO15" t="n">
         <v>-0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>0.09213268950902886</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.03541866784812917</v>
+        <v>0.06094283278573027</v>
       </c>
       <c r="ES15" t="n">
-        <v>-0.03000515701815416</v>
+        <v>-0.05721127681160396</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>-0.06186610851821425</v>
+        <v>0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>0.1215199366423891</v>
       </c>
       <c r="EZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.02924887043682939</v>
+        <v>-0.05932624761504114</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.008255643847626479</v>
+        <v>0.03902312133530724</v>
       </c>
       <c r="FC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF15" t="n">
-        <v>-0.04782997649216545</v>
+        <v>-0</v>
       </c>
       <c r="FG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>0.03150407724905779</v>
       </c>
       <c r="FI15" t="n">
         <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.01146692958050887</v>
+        <v>-0.06332466723590513</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.0380703578318915</v>
+        <v>0.03453736482448729</v>
       </c>
       <c r="FL15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN15" t="n">
         <v>-0</v>
       </c>
       <c r="FO15" t="n">
-        <v>-0.02482969560017462</v>
+        <v>-0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>0.01096262480569038</v>
       </c>
       <c r="FR15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS15" t="n">
-        <v>-0.003387405210304676</v>
+        <v>0.06327563022043114</v>
       </c>
       <c r="FT15" t="n">
-        <v>-0.001745529859243245</v>
+        <v>-0.02816561991569894</v>
       </c>
       <c r="FU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV15" t="n">
         <v>0</v>
       </c>
       <c r="FW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0.009326289703705805</v>
+        <v>-0</v>
       </c>
       <c r="FY15" t="n">
         <v>0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
+        <v>0.07351233589732836</v>
       </c>
       <c r="GA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.02782063861051284</v>
+        <v>0.119375171760277</v>
       </c>
       <c r="GC15" t="n">
         <v>-0</v>
       </c>
       <c r="GD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE15" t="n">
         <v>0</v>
@@ -8965,7 +8965,7 @@
         <v>-0</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.01316413922644408</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
